--- a/adsorption.xlsx
+++ b/adsorption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCEL_Yang\OneDrive - UOS\0. 포스텍 연구\6. MNC_CER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365uos-my.sharepoint.com/personal/jamie78128_office_uos_ac_kr/Documents/0. 포스텍 연구/6. MNC_CER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{2C2F00FA-987E-449B-9D78-7CAB778AC3C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{AACFD496-6C58-4446-84B9-0574DDC3D269}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{2C2F00FA-987E-449B-9D78-7CAB778AC3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C13DD24-C928-4A29-8E60-E058EB54BC71}"/>
   <bookViews>
-    <workbookView xWindow="30156" yWindow="13188" windowWidth="12156" windowHeight="10296" xr2:uid="{D0BCB871-B059-40C2-B3B2-C6FDCFD1DAA5}"/>
+    <workbookView xWindow="16080" yWindow="10530" windowWidth="29040" windowHeight="15840" xr2:uid="{D0BCB871-B059-40C2-B3B2-C6FDCFD1DAA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,14 +585,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B436525-A9B8-4BC7-89E5-0A8E874A46AC}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -651,7 +651,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -675,7 +675,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -699,7 +699,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -771,7 +771,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -795,7 +795,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -819,7 +819,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -843,7 +843,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -867,7 +867,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -891,7 +891,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -915,7 +915,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -947,7 +947,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -979,7 +979,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -1526,11 +1526,11 @@
       <c r="J32" s="10">
         <v>4.78</v>
       </c>
-      <c r="K32" s="12">
-        <v>238.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K32" s="11">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -1662,11 +1662,11 @@
       <c r="J36" s="10">
         <v>4.99</v>
       </c>
-      <c r="K36" s="12">
-        <v>236.17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K36" s="11">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -1991,8 +1991,9 @@
       <c r="J46" s="10">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -2353,11 +2354,11 @@
       <c r="J57" s="10">
         <v>4.95</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="12">
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -2519,8 +2520,11 @@
       <c r="J62" s="10">
         <v>3.59</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K62" s="10">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -2613,8 +2617,11 @@
       <c r="J65" s="10">
         <v>4.55</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K65" s="10">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -2649,7 +2656,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -2679,7 +2686,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -2714,7 +2721,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -2745,11 +2752,11 @@
       <c r="J69" s="10">
         <v>4.9800000000000004</v>
       </c>
-      <c r="K69" s="12">
-        <v>233.19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K69" s="11">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -2778,8 +2785,11 @@
       <c r="J70" s="10">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K70" s="10">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -2812,7 +2822,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -2847,7 +2857,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -2876,6 +2886,7 @@
       <c r="J73" s="10">
         <v>2.21</v>
       </c>
+      <c r="K73" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2885,21 +2896,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101003252169855718940845BDFA48568869A" ma:contentTypeVersion="14" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="143408a69317cce909ab59e5cb1eedc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0470bad4-05a1-4571-8de9-6f1a40071b30" xmlns:ns4="446a3eb3-0366-47a1-91c9-13210c495fa9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7616ba4114c8d64107070c9dfe637ff1" ns3:_="" ns4:_="">
     <xsd:import namespace="0470bad4-05a1-4571-8de9-6f1a40071b30"/>
@@ -3128,32 +3124,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8356ACD6-7EC6-49B1-8059-B7D44681D72A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="446a3eb3-0366-47a1-91c9-13210c495fa9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="0470bad4-05a1-4571-8de9-6f1a40071b30"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796BAE03-66B1-4FFD-A735-095F4A3CA16F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{520BBBE0-FB8B-40EC-8263-B4D843708717}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3170,4 +3156,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796BAE03-66B1-4FFD-A735-095F4A3CA16F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8356ACD6-7EC6-49B1-8059-B7D44681D72A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0470bad4-05a1-4571-8de9-6f1a40071b30"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="446a3eb3-0366-47a1-91c9-13210c495fa9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>